--- a/www/IndicatorsPerCountry/Vietnam_GDPperCapita_TerritorialRef_1975_2012_CCode_704.xlsx
+++ b/www/IndicatorsPerCountry/Vietnam_GDPperCapita_TerritorialRef_1975_2012_CCode_704.xlsx
@@ -255,13 +255,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Vietnam_GDPperCapita_TerritorialRef_1975_2012_CCode_704.xlsx
+++ b/www/IndicatorsPerCountry/Vietnam_GDPperCapita_TerritorialRef_1975_2012_CCode_704.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="89">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,196 +36,214 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>527</t>
+    <t>840</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>505</t>
-  </si>
-  <si>
-    <t>727</t>
-  </si>
-  <si>
-    <t>658</t>
-  </si>
-  <si>
-    <t>676</t>
-  </si>
-  <si>
-    <t>694</t>
-  </si>
-  <si>
-    <t>712</t>
-  </si>
-  <si>
-    <t>732</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>764</t>
-  </si>
-  <si>
-    <t>775</t>
-  </si>
-  <si>
-    <t>785</t>
-  </si>
-  <si>
-    <t>792</t>
-  </si>
-  <si>
-    <t>799</t>
-  </si>
-  <si>
-    <t>812</t>
-  </si>
-  <si>
-    <t>885</t>
-  </si>
-  <si>
-    <t>882</t>
-  </si>
-  <si>
-    <t>895</t>
-  </si>
-  <si>
-    <t>877</t>
-  </si>
-  <si>
-    <t>859</t>
-  </si>
-  <si>
-    <t>731</t>
-  </si>
-  <si>
-    <t>699</t>
-  </si>
-  <si>
-    <t>739</t>
-  </si>
-  <si>
-    <t>735</t>
-  </si>
-  <si>
-    <t>754</t>
-  </si>
-  <si>
-    <t>802</t>
-  </si>
-  <si>
-    <t>836</t>
-  </si>
-  <si>
-    <t>783</t>
-  </si>
-  <si>
-    <t>710</t>
-  </si>
-  <si>
-    <t>809</t>
-  </si>
-  <si>
-    <t>818</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>795</t>
-  </si>
-  <si>
-    <t>757</t>
-  </si>
-  <si>
-    <t>767</t>
-  </si>
-  <si>
-    <t>811</t>
-  </si>
-  <si>
-    <t>891</t>
-  </si>
-  <si>
-    <t>923</t>
-  </si>
-  <si>
-    <t>929</t>
-  </si>
-  <si>
-    <t>941</t>
-  </si>
-  <si>
-    <t>976</t>
-  </si>
-  <si>
-    <t>996</t>
-  </si>
-  <si>
-    <t>1024.9142796</t>
-  </si>
-  <si>
-    <t>1062.64549244</t>
-  </si>
-  <si>
-    <t>1132.95220034</t>
-  </si>
-  <si>
-    <t>1202.04901866</t>
-  </si>
-  <si>
-    <t>1285.25693704</t>
-  </si>
-  <si>
-    <t>1384.52401742</t>
-  </si>
-  <si>
-    <t>1490.34424752</t>
-  </si>
-  <si>
-    <t>1588.38585412</t>
-  </si>
-  <si>
-    <t>1656.97608241</t>
-  </si>
-  <si>
-    <t>1713.0973373</t>
-  </si>
-  <si>
-    <t>1805.42725239</t>
-  </si>
-  <si>
-    <t>1905.08868527</t>
-  </si>
-  <si>
-    <t>2013.65434467</t>
-  </si>
-  <si>
-    <t>2134.19610751</t>
-  </si>
-  <si>
-    <t>2271.30409066</t>
-  </si>
-  <si>
-    <t>2431.75151973</t>
-  </si>
-  <si>
-    <t>2599.65446337</t>
-  </si>
-  <si>
-    <t>2785.32738521</t>
-  </si>
-  <si>
-    <t>2925.94734719</t>
-  </si>
-  <si>
-    <t>3046.26847227</t>
-  </si>
-  <si>
-    <t>3216.81192823</t>
+    <t>805</t>
+  </si>
+  <si>
+    <t>1159</t>
+  </si>
+  <si>
+    <t>1049</t>
+  </si>
+  <si>
+    <t>1078</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>1167</t>
+  </si>
+  <si>
+    <t>1195</t>
+  </si>
+  <si>
+    <t>1218</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>1251</t>
+  </si>
+  <si>
+    <t>1262</t>
+  </si>
+  <si>
+    <t>1274</t>
+  </si>
+  <si>
+    <t>1294</t>
+  </si>
+  <si>
+    <t>1411</t>
+  </si>
+  <si>
+    <t>1406</t>
+  </si>
+  <si>
+    <t>1427</t>
+  </si>
+  <si>
+    <t>1398</t>
+  </si>
+  <si>
+    <t>1369</t>
+  </si>
+  <si>
+    <t>1165</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>1178</t>
+  </si>
+  <si>
+    <t>1172</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>1278</t>
+  </si>
+  <si>
+    <t>1333</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>1290</t>
+  </si>
+  <si>
+    <t>1304</t>
+  </si>
+  <si>
+    <t>1285</t>
+  </si>
+  <si>
+    <t>1267</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>1293</t>
+  </si>
+  <si>
+    <t>1420</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>1481</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>1556</t>
+  </si>
+  <si>
+    <t>1588</t>
+  </si>
+  <si>
+    <t>1634</t>
+  </si>
+  <si>
+    <t>1688.15989504014</t>
+  </si>
+  <si>
+    <t>1792.67077363815</t>
+  </si>
+  <si>
+    <t>1894.85862029566</t>
+  </si>
+  <si>
+    <t>2018.35070301574</t>
+  </si>
+  <si>
+    <t>2167.04204895783</t>
+  </si>
+  <si>
+    <t>2323.04638353782</t>
+  </si>
+  <si>
+    <t>2466.87354952478</t>
+  </si>
+  <si>
+    <t>2564.28445564975</t>
+  </si>
+  <si>
+    <t>2641.3484975664</t>
+  </si>
+  <si>
+    <t>2773.10163510792</t>
+  </si>
+  <si>
+    <t>2915.68614024151</t>
+  </si>
+  <si>
+    <t>3070.6934784829</t>
+  </si>
+  <si>
+    <t>3242.2854696511</t>
+  </si>
+  <si>
+    <t>3437.6644223215</t>
+  </si>
+  <si>
+    <t>3637.65637930508</t>
+  </si>
+  <si>
+    <t>3828.90767342617</t>
+  </si>
+  <si>
+    <t>4037.23285915626</t>
+  </si>
+  <si>
+    <t>4200.23523093943</t>
+  </si>
+  <si>
+    <t>4360.06172503739</t>
+  </si>
+  <si>
+    <t>4571.84858405268</t>
+  </si>
+  <si>
+    <t>4786</t>
+  </si>
+  <si>
+    <t>4984</t>
+  </si>
+  <si>
+    <t>5200</t>
+  </si>
+  <si>
+    <t>5455</t>
+  </si>
+  <si>
+    <t>5763</t>
+  </si>
+  <si>
+    <t>6062</t>
   </si>
   <si>
     <t>Description</t>
@@ -3576,6 +3594,108 @@
         <v>70</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>704.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>704.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>704.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>704.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>704.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>704.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3591,50 +3711,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
